--- a/medicine/Psychotrope/Union_fédérale_CGT_des_personnels_des_tabacs/Union_fédérale_CGT_des_personnels_des_tabacs.xlsx
+++ b/medicine/Psychotrope/Union_fédérale_CGT_des_personnels_des_tabacs/Union_fédérale_CGT_des_personnels_des_tabacs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_f%C3%A9d%C3%A9rale_CGT_des_personnels_des_tabacs</t>
+          <t>Union_fédérale_CGT_des_personnels_des_tabacs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union fédérale CGT des personnels des tabacs regroupe les employés du secteur du tabac affiliée à la Confédération générale du travail. Elle est membre de la Fédération nationale agroalimentaire et forestière CGT.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union_f%C3%A9d%C3%A9rale_CGT_des_personnels_des_tabacs</t>
+          <t>Union_fédérale_CGT_des_personnels_des_tabacs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération nationale des Ouvriers et Ouvrières des Manufactures de Tabacs de France est fondée en décembre 1891 par le rassemblement de quinze syndicats de travailleurs des manufactures de tabacs, alors privilège de l'État. en 1892, lors de son deuxième congrès, elle compte déjà un syndicat par manufacture existant. En 1895, elle lance son premier journal L'Écho du tabac et participe au congrès de Limoge qui fonde la Confédération générale du travail. En 1920, lors de la scission entre « Confédérés » et « Unitaires », des syndicats unitaires se créent et forment une Fédération unitaire des Tabacs qui a son siège à Morlaix et adhèrent au Cartel unitaire des travailleurs de l'État.
 Les travailleurs des allumettes s'organisent eux au sein de la Fédération des Ouvriers et Ouvrières des Manufactures d’Allumettes créée en 1892 et qui s'affilie en 1901 à l'Union fédérative des Travailleurs de l’État, elle n'adhère que l'année suivante à la CGT, parmi ses militants, on compte le jeune Léon Jouhaux. Lors de la scission de 1920, la Fédération des allumettes reste neutre et prend son indépendance vis-à-vis des deux confédérations. Cependant des ouvriers des Allumettes quittent la fédération en 1924 pour rejoindre la Fédération unitaire des tabacs, donnant ainsi naissance à la première Fédération des tabacs et allumettes. La fédération des allumettes retourne alors à la CGT et en 1926, elle adhère à la Fédération nationale des travailleurs de l'État.
